--- a/01-testing-project/Test Report.xlsx
+++ b/01-testing-project/Test Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\JavaScript Unit Test\01-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="Title">"$#REF!.$C$14"</definedName>
     <definedName name="Version">"$#REF!.$N$16"</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
   <si>
     <t>Design Test Report</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>Defect ID</t>
   </si>
   <si>
@@ -200,24 +197,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t xml:space="preserve">Guru99 Bank </t>
-  </si>
-  <si>
-    <t>Test the net banking facility of the esteemed “Guru99 Bank”</t>
-  </si>
-  <si>
-    <t>Peter A</t>
-  </si>
-  <si>
-    <t>Krishna Rungta</t>
-  </si>
-  <si>
-    <t>Management Board</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>SM6</t>
   </si>
   <si>
@@ -269,21 +248,6 @@
     <t>SC13</t>
   </si>
   <si>
-    <t>SC14</t>
-  </si>
-  <si>
-    <t>SC16</t>
-  </si>
-  <si>
-    <t>SC18</t>
-  </si>
-  <si>
-    <t>WS5</t>
-  </si>
-  <si>
-    <t>WS6</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -296,317 +260,261 @@
     <t>Raised By</t>
   </si>
   <si>
-    <t>Tested on Version</t>
-  </si>
-  <si>
-    <t>Tom Crook</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>Steps to Reproduce</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
     <t>Actual Results</t>
   </si>
   <si>
-    <t>1) Click on Delete Account
-2) Enter required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t>1) A pop - up "Do you really want to delete this account?"</t>
-  </si>
-  <si>
-    <t>No confirmation message shown</t>
-  </si>
-  <si>
-    <t>1) Click on Delete Customer
-2) Enter Customer id
-3) Submit</t>
-  </si>
-  <si>
-    <t>1) A pop up "Do you really want to delete this customer?"</t>
-  </si>
-  <si>
-    <t>1) Click on Edit Customer
-2) Enter Customer id
-3) Submit</t>
-  </si>
-  <si>
-    <t>1)A pop - up "Customer does not exist"
-2) Redirect to Delete customer</t>
-  </si>
-  <si>
-    <t>1)A pop - up "Customer does not exist"
-2) Redirects to Delete Customer</t>
-  </si>
-  <si>
-    <t>1) Execute the above test case 
-2) Refresh Fund Transfer detail page</t>
-  </si>
-  <si>
-    <t>Page should redirect to fund transfer page</t>
-  </si>
-  <si>
-    <t>Not redirecting to fund transfer page 
-on clicking refresh button</t>
-  </si>
-  <si>
-    <t>1) Click on Fund Transfer
-2) Enter all required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t>1) A pop - up " Account # does not exist"</t>
-  </si>
-  <si>
-    <t>1) A pop up "You are not authorize to Transfer Funds from this account!!"</t>
-  </si>
-  <si>
-    <t>1) Cliick on Fund Transfer 
-2) Enter all required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t>1) A pop up "No details found for this account!!"</t>
-  </si>
-  <si>
-    <t>1) Click on Fund Transfer 
-2) Enter all required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t>1) A pop up "Payers account No and Payees account No Must Not be Same!!!"</t>
-  </si>
-  <si>
-    <t>No pop up and fund transfer sucessful or for non existing customer pop up "No details found for this account!!" is shown</t>
-  </si>
-  <si>
-    <t>1) A pop up "Transfer Failed. Account Balance low!!"</t>
-  </si>
-  <si>
-    <t>1) A pop up "You cant transfer your account balance is low"</t>
-  </si>
-  <si>
-    <t>1) Refresh Deposit detail Page</t>
-  </si>
-  <si>
-    <t>Page should redirect to Deposit Page</t>
-  </si>
-  <si>
-    <t>Not redirecting to deposit page 
-on clicking refresh button</t>
-  </si>
-  <si>
-    <t>1)Click on Withdrawal
-2) Enter all required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t>An Error message "Transaction failed account balance is low !!"</t>
-  </si>
-  <si>
-    <t>withdrawal done</t>
-  </si>
-  <si>
-    <t>1) Click on Customized statement
-2) Enter all required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t>1) pop - up "From date field should be lower than to date field"</t>
-  </si>
-  <si>
-    <t>1) pop - up "No transaction details found"</t>
-  </si>
-  <si>
-    <t>1) Click on Balance enquiry
-2) Enter wrong account number which is not associated with customer 
-3) Submit</t>
-  </si>
-  <si>
-    <t>Display alert message " You are not authorize to get Balance details of this account!! "</t>
-  </si>
-  <si>
-    <t>You can see balance of any account</t>
-  </si>
-  <si>
-    <t>1) Refresh Fund Transfer detail Page shown in above test case</t>
-  </si>
-  <si>
-    <t>Redirect to Fund Transfer input Page</t>
-  </si>
-  <si>
-    <t>Not redirecting and fund is transfer again</t>
-  </si>
-  <si>
-    <t>1) Click on Fund Transfer
-2) Enter wrong Payer account number which is not associated with customer 
-3) Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display alert messsage "You are not authorize to Transfer Funds from this account!! "
-</t>
-  </si>
-  <si>
-    <t>Not displaying alert message and transfers the fund successful</t>
-  </si>
-  <si>
-    <t>1) Click on Fund Transfer
-2) Enter wrong Payer or Payees account number which is not available in database
-3) Submit</t>
-  </si>
-  <si>
-    <t>Display alert messsage " Account ### does not exist!!! "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display alert messsage " No details found for this accounts !!! "
-</t>
-  </si>
-  <si>
-    <t>1) Click on Fund Transfer
-2) Enter same Payer account number and Payees account number which is available in database 
-3) Submit</t>
-  </si>
-  <si>
-    <t>Display alert messsage " Payers account No and Payees account No Must Not be Same!!! "</t>
-  </si>
-  <si>
-    <t>1) Click on Mini Statement
-2) Enter all required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display alert messsage " You are not authorize to generate statement of this Account!! "
-</t>
-  </si>
-  <si>
-    <t>Ministatement is generated for any account that exists in database</t>
-  </si>
-  <si>
-    <t>1) Click on customize statement
-2) Enter all required fields
-3) Submit</t>
-  </si>
-  <si>
-    <t>Customized statement is generated for any account that exists in database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display alert messsage " FromDate field should be lower than ToDate field!!"
-</t>
-  </si>
-  <si>
-    <t>1) Enter a value in Account Number Field in URL which is exist in database
-2) Press Enter</t>
-  </si>
-  <si>
-    <t>A Success message with mini statement in the json format should be displayed</t>
-  </si>
-  <si>
-    <t>Json format fail</t>
-  </si>
-  <si>
-    <t>1) Do not enter a value in account number in URL</t>
-  </si>
-  <si>
-    <t>An error in message "No Data " should be displayed in json format</t>
-  </si>
-  <si>
-    <t>Data is shown</t>
-  </si>
-  <si>
     <t>Bug description</t>
   </si>
   <si>
-    <t>alert " You are not authorize to edit this account!"
-redirect to delete customer page</t>
-  </si>
-  <si>
-    <t>alert " You are not authorize to delete this account!"
-redirect to delete customer page</t>
-  </si>
-  <si>
-    <t>New Customer</t>
-  </si>
-  <si>
-    <t>Check new Customer is created</t>
-  </si>
-  <si>
-    <t>Edit Customer</t>
-  </si>
-  <si>
-    <t>Check Customer can be edited</t>
-  </si>
-  <si>
-    <t>New Account</t>
-  </si>
-  <si>
-    <t>Check New account is added</t>
-  </si>
-  <si>
-    <t>Edit Account</t>
-  </si>
-  <si>
-    <t>Check Account is edit</t>
-  </si>
-  <si>
-    <t>Delete Account</t>
-  </si>
-  <si>
-    <t>Verify Account is delete</t>
-  </si>
-  <si>
-    <t>Delete customer</t>
-  </si>
-  <si>
-    <t>Verify Customer is Deleted</t>
-  </si>
-  <si>
-    <t>Mini Statement</t>
-  </si>
-  <si>
-    <t>Verify Ministatement is generated</t>
-  </si>
-  <si>
-    <t>Customized Statement</t>
-  </si>
-  <si>
-    <t>Check Customized Statement is generated</t>
-  </si>
-  <si>
     <t>TCs pending</t>
   </si>
   <si>
-    <t>Number of defects</t>
-  </si>
-  <si>
     <t>Line of code (LOC)</t>
   </si>
   <si>
     <t>Defect fixed</t>
   </si>
   <si>
-    <t>Fund  Transfer</t>
-  </si>
-  <si>
     <t>Not fixed</t>
   </si>
   <si>
     <t>Initial Draft</t>
   </si>
   <si>
-    <t>Tim Harrison</t>
+    <t>NguyenHHKiet</t>
+  </si>
+  <si>
+    <t>Post heading</t>
+  </si>
+  <si>
+    <t>Test the posting facility of the esteemed “Post heading”</t>
+  </si>
+  <si>
+    <t>Check HttpError is created</t>
+  </si>
+  <si>
+    <t>Check ValidationError is created</t>
+  </si>
+  <si>
+    <t>Check extractPostData is added</t>
+  </si>
+  <si>
+    <t>HttpError</t>
+  </si>
+  <si>
+    <t>ValidationError</t>
+  </si>
+  <si>
+    <t>Extract Post Data</t>
+  </si>
+  <si>
+    <t>Should contain the provided status code, message, and data</t>
+  </si>
+  <si>
+    <t>testStatus = 1;
+testMessage = "Test";
+testData = { key: "test" };</t>
+  </si>
+  <si>
+    <t>Should contain undefined as data if no data is provided</t>
+  </si>
+  <si>
+    <t>testStatus = 1;
+testMessage = "Test";
+testData = undefined</t>
+  </si>
+  <si>
+    <t>Should contain the provided message</t>
+  </si>
+  <si>
+    <t>testMessage = "test";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should throw an error if an empty string is provided as a value </t>
+  </si>
+  <si>
+    <t>An error will be reported</t>
+  </si>
+  <si>
+    <t>Should throw an error if all space string is provided as a value</t>
+  </si>
+  <si>
+    <t>Should throw an error with the provided error message</t>
+  </si>
+  <si>
+    <t>testInput = "";
+testErrorMessage = "Test";</t>
+  </si>
+  <si>
+    <t>An error will be reported with testErrorMessage = "Test"</t>
+  </si>
+  <si>
+    <t>Should return any available response data</t>
+  </si>
+  <si>
+    <t>return response data testResponseData = { testKey: 'testData' }</t>
+  </si>
+  <si>
+    <t>testResponseData = { testKey: 'testData' };</t>
+  </si>
+  <si>
+    <t>Should convert the provided data to JSON before sending the request</t>
+  </si>
+  <si>
+    <t>errorMessage is undefined</t>
+  </si>
+  <si>
+    <t>errorMessage is undefined, no reject is Not a String</t>
+  </si>
+  <si>
+    <t>Should throw an HttpError in case of non-ok responses</t>
+  </si>
+  <si>
+    <t>throw new HttpError with message = "Sending the request failed."</t>
+  </si>
+  <si>
+    <t>response.ok === false ís reject,  throw new HttpError with message is "Sending the request failed."</t>
+  </si>
+  <si>
+    <t>Should extract the title and content from the provided form data</t>
+  </si>
+  <si>
+    <t>testTitle = 'Test title';   testContent = 'Test content';</t>
+  </si>
+  <si>
+    <t>data.title = testTitle         data.content = testContent</t>
+  </si>
+  <si>
+    <t>Should add an error paragraph to the id='errors' element</t>
+  </si>
+  <si>
+    <t>Add an showError("test") and errorParagraph is not to be Null</t>
+  </si>
+  <si>
+    <t>errorParagraph is not to be Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not contain an error paragraph initially </t>
+  </si>
+  <si>
+    <t>errorParagraph is to be Null</t>
+  </si>
+  <si>
+    <t>errorParagraph is Null</t>
+  </si>
+  <si>
+    <t>Should output the provided message in the error paragraph</t>
+  </si>
+  <si>
+    <t>testErrorMessage = "Test Error Message" and errorParagraph.textContent is to be testErrorMessage</t>
+  </si>
+  <si>
+    <t>errorParagraph is "Test Error Message"</t>
+  </si>
+  <si>
+    <t>generateToken</t>
+  </si>
+  <si>
+    <t>generateTokenPromise</t>
+  </si>
+  <si>
+    <t>Check generateToken is created</t>
+  </si>
+  <si>
+    <t>Check generateTokenPromise is created</t>
+  </si>
+  <si>
+    <t>Should update the email</t>
+  </si>
+  <si>
+    <t>Should have an email property</t>
+  </si>
+  <si>
+    <t>Should store the provided email value</t>
+  </si>
+  <si>
+    <t>user.email = "test2@test.com"</t>
+  </si>
+  <si>
+    <t>email of user is to be "test2@test.com"</t>
+  </si>
+  <si>
+    <t>user is have to email property (TRUE)</t>
+  </si>
+  <si>
+    <t>Should clear the email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should still have an email property after clearing the email </t>
+  </si>
+  <si>
+    <t>user.email is empty</t>
+  </si>
+  <si>
+    <t>Should generate a token value promise</t>
+  </si>
+  <si>
+    <t>Should generate a token value</t>
+  </si>
+  <si>
+    <t>create token is defined</t>
+  </si>
+  <si>
+    <t>token is defined</t>
+  </si>
+  <si>
+    <t>token resolves are defined</t>
+  </si>
+  <si>
+    <t>a token value is defined</t>
+  </si>
+  <si>
+    <t>SC6</t>
+  </si>
+  <si>
+    <t>SC7</t>
+  </si>
+  <si>
+    <t>SC8</t>
+  </si>
+  <si>
+    <t>SC10</t>
+  </si>
+  <si>
+    <t>Hoang Kiet</t>
+  </si>
+  <si>
+    <t>TestCase Passed</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>savePost</t>
+  </si>
+  <si>
+    <t>savePost is submit</t>
+  </si>
+  <si>
+    <t>showError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showError append message </t>
+  </si>
+  <si>
+    <t>validateNotEmpty</t>
+  </si>
+  <si>
+    <t>check validateNotEmpty of input into</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -722,13 +630,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
@@ -784,8 +685,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +734,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1331,10 +1244,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1418,7 +1332,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1427,20 +1341,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,12 +1366,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1466,88 +1380,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1556,13 +1452,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1570,21 +1466,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1600,17 +1490,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1618,65 +1565,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1698,7 +1592,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1859,41 +1753,22 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Content!$I$18:$I$26</c:f>
+              <c:f>Content!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE8B-4F56-9FF7-B00999DD5EEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1983,41 +1858,43 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Content!$J$18:$J$26</c:f>
+              <c:f>Content!$H$18:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE8B-4F56-9FF7-B00999DD5EEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -2283,7 +2160,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2372,6 +2249,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-56C6-41EF-B464-BCFBBDF57ABE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2387,6 +2269,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-56C6-41EF-B464-BCFBBDF57ABE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2417,6 +2304,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-56C6-41EF-B464-BCFBBDF57ABE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2435,6 +2327,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-56C6-41EF-B464-BCFBBDF57ABE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2450,6 +2347,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-56C6-41EF-B464-BCFBBDF57ABE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2480,6 +2382,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-56C6-41EF-B464-BCFBBDF57ABE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4087,63 +3994,63 @@
   <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-    </row>
-    <row r="2" spans="2:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+    </row>
+    <row r="2" spans="2:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-    </row>
-    <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+    </row>
+    <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-    </row>
-    <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
@@ -4154,58 +4061,58 @@
         <v>10</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
-        <v>43125</v>
+        <v>45265</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
+    <row r="15" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4227,144 +4134,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-    </row>
-    <row r="2" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+    </row>
+    <row r="2" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-    </row>
-    <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+    </row>
+    <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-    </row>
-    <row r="4" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+    </row>
+    <row r="4" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+    </row>
+    <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="106">
-        <v>41664</v>
-      </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="97">
+        <v>45265</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+    </row>
+    <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-    </row>
-    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="105" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+    </row>
+    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="105"/>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="95"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
@@ -4372,30 +4273,35 @@
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
+    <row r="19" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C8:E8"/>
@@ -4403,11 +4309,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3298611111111111" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4423,53 +4324,53 @@
   <dimension ref="B2:L55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="113" t="s">
+    <row r="3" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="127" t="s">
+    <row r="6" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="117" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -4478,12 +4379,12 @@
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="44">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="121"/>
+    <row r="8" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="111"/>
       <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
@@ -4494,1051 +4395,995 @@
       </c>
       <c r="G8" s="48"/>
     </row>
-    <row r="9" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="121"/>
-      <c r="C9" s="122" t="s">
+    <row r="9" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="111"/>
+      <c r="C9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="46">
-        <f>F7+F8</f>
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="107" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
       <c r="G10" s="43">
         <v>0</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="107" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="43">
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="97" t="s">
-        <v>160</v>
+      <c r="J11" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>68</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="107" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
       <c r="G12" s="43">
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="97">
+      <c r="J12" s="89">
         <v>22</v>
       </c>
-      <c r="K12" s="97">
+      <c r="K12" s="89">
         <v>0</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="121" t="s">
+    <row r="13" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123">
-        <f>SUM(G9:G12)</f>
-        <v>130</v>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113">
+        <v>21</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125" t="s">
+    <row r="14" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="124"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="114"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="F17" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="79">
+        <v>1</v>
+      </c>
+      <c r="E18" s="79">
+        <v>1</v>
+      </c>
+      <c r="F18" s="85">
+        <v>0</v>
+      </c>
+      <c r="G18" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="86" t="s">
+      <c r="H18" s="33">
+        <v>1</v>
+      </c>
+      <c r="I18" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="79">
+        <v>1</v>
+      </c>
+      <c r="E19" s="79">
+        <v>1</v>
+      </c>
+      <c r="F19" s="85">
+        <v>0</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="34">
+        <v>9</v>
+      </c>
+      <c r="I19" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="79">
+        <v>1</v>
+      </c>
+      <c r="E20" s="79">
+        <v>1</v>
+      </c>
+      <c r="F20" s="85">
+        <v>0</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="34">
+        <v>10</v>
+      </c>
+      <c r="I20" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="79">
+        <v>1</v>
+      </c>
+      <c r="E21" s="79">
+        <v>1</v>
+      </c>
+      <c r="F21" s="85">
+        <v>0</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="34">
+        <v>3</v>
+      </c>
+      <c r="I21" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="79">
+        <v>1</v>
+      </c>
+      <c r="E22" s="79">
+        <v>1</v>
+      </c>
+      <c r="F22" s="85">
+        <v>0</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="34">
+        <v>7</v>
+      </c>
+      <c r="I22" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="D23" s="79">
+        <v>1</v>
+      </c>
+      <c r="E23" s="79">
+        <v>1</v>
+      </c>
+      <c r="F23" s="85">
+        <v>0</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="34">
+        <v>4</v>
+      </c>
+      <c r="I23" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="85">
+      <c r="C24" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="79">
         <v>1</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E24" s="79">
         <v>1</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F24" s="85">
         <v>0</v>
       </c>
-      <c r="G18" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="33">
+      <c r="G24" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="34">
+        <v>1</v>
+      </c>
+      <c r="I24" s="87">
         <v>0</v>
       </c>
-      <c r="J18" s="33">
-        <v>50</v>
-      </c>
-      <c r="K18" s="94">
+    </row>
+    <row r="25" spans="2:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="79">
+        <v>1</v>
+      </c>
+      <c r="E25" s="79">
+        <v>1</v>
+      </c>
+      <c r="F25" s="85">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="85">
-        <v>1</v>
-      </c>
-      <c r="E19" s="85">
-        <v>1</v>
-      </c>
-      <c r="F19" s="91">
+      <c r="G25" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="34">
+        <v>3</v>
+      </c>
+      <c r="I25" s="87">
         <v>0</v>
       </c>
-      <c r="G19" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="34">
-        <v>1</v>
-      </c>
-      <c r="J19" s="34">
-        <v>100</v>
-      </c>
-      <c r="K19" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="85">
-        <v>1</v>
-      </c>
-      <c r="E20" s="85">
-        <v>1</v>
-      </c>
-      <c r="F20" s="91">
-        <v>0</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="34">
-        <v>0</v>
-      </c>
-      <c r="J20" s="34">
-        <v>60</v>
-      </c>
-      <c r="K20" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="85">
-        <v>1</v>
-      </c>
-      <c r="E21" s="85">
-        <v>1</v>
-      </c>
-      <c r="F21" s="91">
-        <v>0</v>
-      </c>
-      <c r="G21" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="34">
-        <v>2</v>
-      </c>
-      <c r="J21" s="34">
-        <v>300</v>
-      </c>
-      <c r="K21" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="85">
-        <v>1</v>
-      </c>
-      <c r="E22" s="85">
-        <v>1</v>
-      </c>
-      <c r="F22" s="91">
-        <v>0</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="34">
-        <v>2</v>
-      </c>
-      <c r="J22" s="34">
-        <v>300</v>
-      </c>
-      <c r="K22" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="85">
-        <v>1</v>
-      </c>
-      <c r="E23" s="85">
-        <v>1</v>
-      </c>
-      <c r="F23" s="91">
-        <v>0</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="34">
-        <v>3</v>
-      </c>
-      <c r="J23" s="34">
-        <v>400</v>
-      </c>
-      <c r="K23" s="95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="34">
-        <v>8</v>
-      </c>
-      <c r="J24" s="34">
-        <v>1500</v>
-      </c>
-      <c r="K24" s="95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="85">
-        <v>1</v>
-      </c>
-      <c r="E25" s="85">
-        <v>1</v>
-      </c>
-      <c r="F25" s="91">
-        <v>0</v>
-      </c>
-      <c r="G25" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="93"/>
-      <c r="I25" s="34">
-        <v>2</v>
-      </c>
-      <c r="J25" s="34">
-        <v>350</v>
-      </c>
-      <c r="K25" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="85">
-        <v>1</v>
-      </c>
-      <c r="E26" s="85">
-        <v>1</v>
-      </c>
-      <c r="F26" s="91">
-        <v>0</v>
-      </c>
-      <c r="G26" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="93"/>
-      <c r="I26" s="34">
-        <v>4</v>
-      </c>
-      <c r="J26" s="34">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="80"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="87"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="95"/>
-    </row>
-    <row r="29" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="87"/>
+    </row>
+    <row r="29" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="38"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="96"/>
-    </row>
-    <row r="31" spans="2:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="117" t="s">
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="88"/>
+    </row>
+    <row r="31" spans="2:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="119" t="s">
+      <c r="G32" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="119" t="s">
+      <c r="H32" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="109" t="s">
         <v>26</v>
-      </c>
-      <c r="H32" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="109" t="s">
-        <v>27</v>
       </c>
       <c r="J32" s="109" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="111" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="118"/>
+        <v>61</v>
+      </c>
+      <c r="L32" s="99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="106"/>
       <c r="C33" s="52" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="110"/>
+        <v>63</v>
+      </c>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="110"/>
       <c r="J33" s="110"/>
       <c r="K33" s="110"/>
-      <c r="L33" s="112"/>
-    </row>
-    <row r="34" spans="2:12" s="32" customFormat="1" ht="113.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="83">
+      <c r="L33" s="100"/>
+    </row>
+    <row r="34" spans="2:12" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="77">
         <v>1</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="E34" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="63">
+        <v>45265</v>
+      </c>
+      <c r="J34" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="78">
+        <v>2</v>
+      </c>
+      <c r="C35" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="D35" s="55" t="s">
         <v>82</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="64">
-        <v>41664</v>
-      </c>
-      <c r="J34" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="L34" s="67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="84">
-        <v>2</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="E35" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="71">
-        <v>41664</v>
-      </c>
-      <c r="J35" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L35" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F35" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="63">
+        <v>45266</v>
+      </c>
+      <c r="J35" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53">
         <v>3</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="63">
+        <v>45267</v>
+      </c>
+      <c r="J36" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J36" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="53">
         <v>4</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J37" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L37" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="63">
+        <v>45268</v>
+      </c>
+      <c r="J37" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="53">
         <v>5</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J38" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="63">
+        <v>45269</v>
+      </c>
+      <c r="J38" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="53">
         <v>6</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J39" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K39" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L39" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="63">
+        <v>45270</v>
+      </c>
+      <c r="J39" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="53">
         <v>7</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J40" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="F40" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="63">
+        <v>45271</v>
+      </c>
+      <c r="J40" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="53">
         <v>8</v>
       </c>
       <c r="C41" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="55" t="s">
-        <v>97</v>
-      </c>
       <c r="E41" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J41" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L41" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="63">
+        <v>45272</v>
+      </c>
+      <c r="J41" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="53">
         <v>9</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" s="55" t="s">
         <v>99</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J42" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L42" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="F42" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="63">
+        <v>45273</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="53">
         <v>10</v>
       </c>
       <c r="C43" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="E43" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J43" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K43" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L43" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="63">
+        <v>45274</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="53">
         <v>11</v>
       </c>
       <c r="C44" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="E44" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I44" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J44" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K44" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L44" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I44" s="63">
+        <v>45275</v>
+      </c>
+      <c r="J44" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="53">
         <v>12</v>
       </c>
       <c r="C45" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="E45" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="68" t="s">
+      <c r="F45" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J45" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K45" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L45" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="H45" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="63">
+        <v>45276</v>
+      </c>
+      <c r="J45" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L45" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="53">
         <v>13</v>
       </c>
       <c r="C46" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="E46" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="68" t="s">
+      <c r="F46" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="63">
+        <v>45277</v>
+      </c>
+      <c r="J46" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J46" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L46" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K46" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="53">
         <v>14</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J47" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L47" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="63.75" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="63">
+        <v>45278</v>
+      </c>
+      <c r="J47" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L47" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="53">
         <v>15</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="55" t="s">
         <v>117</v>
       </c>
+      <c r="D48" s="55" t="b">
+        <v>1</v>
+      </c>
       <c r="E48" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J48" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L48" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="63.75" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="63">
+        <v>45279</v>
+      </c>
+      <c r="J48" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="53">
         <v>16</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J49" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K49" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L49" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="76.5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="D49" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="63">
+        <v>45280</v>
+      </c>
+      <c r="J49" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L49" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="53">
         <v>17</v>
       </c>
@@ -5546,210 +5391,190 @@
         <v>122</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J50" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L50" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F50" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="63">
+        <v>45281</v>
+      </c>
+      <c r="J50" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L50" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="53">
         <v>18</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I51" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J51" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K51" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L51" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="D51" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="63">
+        <v>45282</v>
+      </c>
+      <c r="J51" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L51" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="53">
         <v>19</v>
       </c>
       <c r="C52" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="55" t="s">
         <v>127</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>125</v>
       </c>
       <c r="E52" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I52" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J52" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K52" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L52" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="F52" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="63">
+        <v>45283</v>
+      </c>
+      <c r="J52" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L52" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="53">
         <v>20</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="55" t="s">
         <v>129</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I53" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J53" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K53" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L53" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="63">
+        <v>45284</v>
+      </c>
+      <c r="J53" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K53" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L53" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="53">
         <v>21</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="55" t="s">
-        <v>131</v>
-      </c>
       <c r="E54" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I54" s="75">
-        <v>41664</v>
-      </c>
-      <c r="J54" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="K54" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="L54" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="54">
-        <v>22</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="63">
+        <v>45285</v>
+      </c>
+      <c r="J54" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="I55" s="79">
-        <v>41664</v>
-      </c>
-      <c r="J55" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="K55" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="L55" s="82" t="s">
-        <v>76</v>
-      </c>
+      <c r="L54" s="120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="54"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
     <mergeCell ref="L32:L33"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="C32:E32"/>
@@ -5766,11 +5591,9 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H35:H46">
+  <dataValidations count="4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H35:H54">
       <formula1>"S1, S2, S3, S4, S5"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/01-testing-project/Test Report.xlsx
+++ b/01-testing-project/Test Report.xlsx
@@ -1475,6 +1475,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,17 +1493,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1532,12 +1541,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1564,9 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1589,2058 +1589,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Defect density</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Content!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE8B-4F56-9FF7-B00999DD5EEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Content!$H$18:$H$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE8B-4F56-9FF7-B00999DD5EEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="340905760"/>
-        <c:axId val="340904976"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="340905760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of defects</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340904976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="340904976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>LOC</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="340905760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Defect fixed ratio</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-56C6-41EF-B464-BCFBBDF57ABE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-56C6-41EF-B464-BCFBBDF57ABE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Content!$J$11:$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Defect fixed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Not fixed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Content!$J$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-56C6-41EF-B464-BCFBBDF57ABE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-56C6-41EF-B464-BCFBBDF57ABE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-56C6-41EF-B464-BCFBBDF57ABE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Content!$J$11:$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Defect fixed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Not fixed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Content!$J$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-56C6-41EF-B464-BCFBBDF57ABE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200585</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>426944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66115</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4009,25 +1957,25 @@
   <sheetData>
     <row r="1" spans="2:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -4043,12 +1991,12 @@
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4109,10 +2057,10 @@
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4150,25 +2098,25 @@
   <sheetData>
     <row r="1" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="4" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -4180,12 +2128,12 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
     </row>
     <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -4211,11 +2159,11 @@
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C9" s="99">
         <v>45265</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -4246,7 +2194,7 @@
       <c r="E12" s="96"/>
     </row>
     <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="98" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -4260,7 +2208,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="95"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
@@ -4290,18 +2238,13 @@
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C8:E8"/>
@@ -4309,6 +2252,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3298611111111111" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4323,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4348,15 +2296,15 @@
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
@@ -4370,7 +2318,7 @@
     </row>
     <row r="6" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="118" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -4384,7 +2332,7 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
@@ -4396,13 +2344,13 @@
       <c r="G8" s="48"/>
     </row>
     <row r="9" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="111"/>
-      <c r="C9" s="112" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="46">
         <v>21</v>
       </c>
@@ -4412,13 +2360,13 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="43">
         <v>0</v>
       </c>
@@ -4428,13 +2376,13 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="43">
         <v>0</v>
       </c>
@@ -4448,13 +2396,13 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="43">
         <v>0</v>
       </c>
@@ -4468,14 +2416,14 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113">
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114">
         <v>21</v>
       </c>
       <c r="I13" s="1"/>
@@ -4484,14 +2432,14 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="114"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="115"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4774,38 +2722,38 @@
     </row>
     <row r="31" spans="2:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="107" t="s">
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="107" t="s">
+      <c r="G32" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="107" t="s">
+      <c r="H32" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="109" t="s">
+      <c r="I32" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="109" t="s">
+      <c r="J32" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="109" t="s">
+      <c r="K32" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="99" t="s">
+      <c r="L32" s="102" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="106"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="52" t="s">
         <v>10</v>
       </c>
@@ -4815,13 +2763,13 @@
       <c r="E33" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="100"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="103"/>
     </row>
     <row r="34" spans="2:12" s="32" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="77">
@@ -4854,7 +2802,7 @@
       <c r="K34" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L34" s="120" t="s">
+      <c r="L34" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4889,7 +2837,7 @@
       <c r="K35" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L35" s="120" t="s">
+      <c r="L35" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4924,7 +2872,7 @@
       <c r="K36" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L36" s="120" t="s">
+      <c r="L36" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4959,7 +2907,7 @@
       <c r="K37" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L37" s="120" t="s">
+      <c r="L37" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4994,7 +2942,7 @@
       <c r="K38" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L38" s="120" t="s">
+      <c r="L38" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5029,7 +2977,7 @@
       <c r="K39" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L39" s="120" t="s">
+      <c r="L39" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5064,7 +3012,7 @@
       <c r="K40" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L40" s="120" t="s">
+      <c r="L40" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5099,7 +3047,7 @@
       <c r="K41" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L41" s="120" t="s">
+      <c r="L41" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5134,7 +3082,7 @@
       <c r="K42" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L42" s="120" t="s">
+      <c r="L42" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5169,7 +3117,7 @@
       <c r="K43" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L43" s="120" t="s">
+      <c r="L43" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5204,7 +3152,7 @@
       <c r="K44" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L44" s="120" t="s">
+      <c r="L44" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5239,7 +3187,7 @@
       <c r="K45" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L45" s="120" t="s">
+      <c r="L45" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5274,7 +3222,7 @@
       <c r="K46" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L46" s="120" t="s">
+      <c r="L46" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5309,7 +3257,7 @@
       <c r="K47" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L47" s="120" t="s">
+      <c r="L47" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5344,7 +3292,7 @@
       <c r="K48" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L48" s="120" t="s">
+      <c r="L48" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5379,7 +3327,7 @@
       <c r="K49" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L49" s="120" t="s">
+      <c r="L49" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5414,7 +3362,7 @@
       <c r="K50" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L50" s="120" t="s">
+      <c r="L50" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5449,7 +3397,7 @@
       <c r="K51" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L51" s="120" t="s">
+      <c r="L51" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5484,7 +3432,7 @@
       <c r="K52" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L52" s="120" t="s">
+      <c r="L52" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5519,7 +3467,7 @@
       <c r="K53" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L53" s="120" t="s">
+      <c r="L53" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5554,7 +3502,7 @@
       <c r="K54" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="L54" s="120" t="s">
+      <c r="L54" s="90" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5573,6 +3521,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="L32:L33"/>
@@ -5589,8 +3539,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="I32:I33"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H35:H54">
@@ -5610,6 +3558,5 @@
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>